--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mikroskil\TKPPL\Virtual-Reality-2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="B4:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,9 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -689,7 +691,9 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -720,7 +724,9 @@
       <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -751,7 +757,9 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -782,7 +790,9 @@
       <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -813,7 +823,9 @@
       <c r="I12" s="2">
         <v>3</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -844,7 +856,9 @@
       <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>4</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -875,7 +889,9 @@
       <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -906,7 +922,9 @@
       <c r="I15" s="2">
         <v>8</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>8</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -937,7 +955,9 @@
       <c r="I16" s="2">
         <v>8</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>8</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -985,7 +1005,10 @@
         <f>H18-$F$18/10</f>
         <v>37.800000000000004</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <f>I18-$F$18/10</f>
+        <v>32.400000000000006</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1016,7 +1039,10 @@
         <f>SUM(I7:I16)</f>
         <v>36</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <f>SUM(J7:J16)</f>
+        <v>25</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Burn down chart TKPPL Bespoke Dubasata</t>
   </si>
@@ -159,9 +162,6 @@
     <t>Menjelaskan Kelebihan VR</t>
   </si>
   <si>
-    <t>Menjelaskan Kekurangan VR</t>
-  </si>
-  <si>
     <t>Menjelaskan Penerapan dikehidupan sehari-hari</t>
   </si>
   <si>
@@ -172,12 +172,27 @@
   </si>
   <si>
     <t>Actual - Remaining efforts in uninterrupted working hours</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Menjelaskan Efek Negative VR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -282,6 +297,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,6 +313,411 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.134816772980165E-4"/>
+          <c:y val="0.1760875014135507"/>
+          <c:w val="0.97354974201058309"/>
+          <c:h val="0.67947368056565494"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$18:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>49.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.53846153846154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.384615384615387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.230769230769234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.07692307692308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.769230769230774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.61538461538462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.461538461538467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3076923076923137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1538461538461595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-701697296"/>
+        <c:axId val="-701694576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-701697296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-701694576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-701694576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="-701697296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1032583</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371315</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="F3" t="str">
+            <v>Day 10</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Day 9</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>Day 8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>Day 7</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>Day 6</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>Day 5</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Day 4</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>Day 3</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>Day 2</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>Day 1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>54</v>
+          </cell>
+          <cell r="G17">
+            <v>48</v>
+          </cell>
+          <cell r="H17">
+            <v>42</v>
+          </cell>
+          <cell r="I17">
+            <v>36</v>
+          </cell>
+          <cell r="J17">
+            <v>30</v>
+          </cell>
+          <cell r="K17">
+            <v>24</v>
+          </cell>
+          <cell r="L17">
+            <v>18</v>
+          </cell>
+          <cell r="M17">
+            <v>12</v>
+          </cell>
+          <cell r="N17">
+            <v>6</v>
+          </cell>
+          <cell r="O17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>18</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P19"/>
+  <dimension ref="B4:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +998,7 @@
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
@@ -588,7 +1009,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,37 +1026,46 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -661,14 +1091,35 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -694,14 +1145,35 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -725,16 +1197,37 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -760,14 +1253,35 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -788,19 +1302,40 @@
         <v>4</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -824,16 +1359,37 @@
         <v>3</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -859,14 +1415,35 @@
       <c r="J13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -875,7 +1452,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4">
         <v>5</v>
@@ -892,14 +1469,35 @@
       <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +1506,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4">
         <v>8</v>
@@ -925,14 +1523,35 @@
       <c r="J15" s="2">
         <v>8</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="K15" s="2">
+        <v>8</v>
+      </c>
+      <c r="L15" s="2">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4</v>
+      </c>
+      <c r="R15" s="2">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -941,7 +1560,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4">
         <v>8</v>
@@ -958,14 +1577,35 @@
       <c r="J16" s="2">
         <v>8</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="K16" s="2">
+        <v>8</v>
+      </c>
+      <c r="L16" s="2">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2">
+        <v>6</v>
+      </c>
+      <c r="N16" s="2">
+        <v>6</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -981,10 +1621,13 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -993,32 +1636,62 @@
         <f t="array" ref="F18">SUM(F7:F16)</f>
         <v>54</v>
       </c>
-      <c r="G18" s="2">
-        <f>F18-$F$18/10</f>
-        <v>48.6</v>
-      </c>
-      <c r="H18" s="2">
-        <f>G18-$F$18/10</f>
-        <v>43.2</v>
-      </c>
-      <c r="I18" s="2">
-        <f>H18-$F$18/10</f>
-        <v>37.800000000000004</v>
-      </c>
-      <c r="J18" s="2">
-        <f>I18-$F$18/10</f>
-        <v>32.400000000000006</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="G18" s="7">
+        <f>F18-$F$18/13</f>
+        <v>49.846153846153847</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:S18" si="0">G18-$F$18/13</f>
+        <v>45.692307692307693</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>41.53846153846154</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="0"/>
+        <v>37.384615384615387</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>33.230769230769234</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>29.07692307692308</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>24.923076923076927</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>20.769230769230774</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="0"/>
+        <v>16.61538461538462</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="0"/>
+        <v>12.461538461538467</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3076923076923137</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1538461538461595</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1037,18 +1710,48 @@
       </c>
       <c r="I19" s="2">
         <f>SUM(I7:I16)</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2">
         <f>SUM(J7:J16)</f>
+        <v>33</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" ref="K19:S19" si="1">SUM(K7:K16)</f>
+        <v>28</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1058,6 +1761,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>